--- a/7 - Motion In Two Dimensions/7-01 - Projectile Motion.xlsx
+++ b/7 - Motion In Two Dimensions/7-01 - Projectile Motion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\K12-Physics-S1_SY2223\7 - Motion In Two Dimensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B4F805-D347-4FB2-94E4-C1CC288C471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F024DD9-64CA-4480-9B3D-BB37B99B6B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{ECE34DDE-8C02-49FB-9DF3-9F405F789295}"/>
+    <workbookView xWindow="10395" yWindow="3135" windowWidth="14280" windowHeight="11295" xr2:uid="{ECE34DDE-8C02-49FB-9DF3-9F405F789295}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectile Horizontal" sheetId="1" r:id="rId1"/>
@@ -178,13 +178,13 @@
     <t>t/2</t>
   </si>
   <si>
-    <t>Ymax=Vy*t+0.5*g*t^2, where t=1.0 (or half the total time)</t>
-  </si>
-  <si>
     <t>A boy throws a stone horizontally with a velocity of +20 m/s from the top of a cliff that is 44 m high.</t>
   </si>
   <si>
     <t>How long does it take the stone to reach the ground?</t>
+  </si>
+  <si>
+    <t>Ymax=Vy*t+0.5*g*t^2, where t=(half the total time)</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A790C671-9BEC-4C6E-9F47-D996C657A25B}">
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -591,12 +591,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AFDECD-2E51-4B18-BF43-94C694532AA0}">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -929,14 +929,14 @@
         <v>44</v>
       </c>
       <c r="D18" s="5">
-        <f>D15/2*D14+0.5*D7</f>
-        <v>5.3040816326530571</v>
+        <f>D16*D14+0.5*D7*POWER(D16, 2)</f>
+        <v>5.1020408163265287</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
